--- a/biology/Zoologie/Mihai_Băcescu/Mihai_Băcescu.xlsx
+++ b/biology/Zoologie/Mihai_Băcescu/Mihai_Băcescu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mihai_B%C4%83cescu</t>
+          <t>Mihai_Băcescu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mihai Băcescu, né le 28 mars 1908 à Broșteni et mort à Bucarest le 6 août 1999, est un zoologiste roumain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mihai_B%C4%83cescu</t>
+          <t>Mihai_Băcescu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orphelin à l’âge de quatre ans, il entre à l’université en 1933 et présente cinq ans plus tard une thèse sur Les mysidacés des eaux roumaines (étude taxonomique, biogéographique et biologique)[1]. En 1939, il obtient une bourse en France et travaille notamment au Muséum national d'histoire naturelle de Paris, au Musée océanographique de Monaco, à la station de biologie marine de Banyuls-sur-Mer et à celle de Roscoff. Il se fait apprécier les zoologistes français dont Louis Fage (1883-1964), Édouard Chatton (1883-1947), Charles Pérez (1873-1952) et Jules Richard (1863-1945) et il représente la Roumanie à la Commission internationale pour l'exploration scientifique de la Méditerranée (CIESM), dont Grigore Antipa était membre fondateur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orphelin à l’âge de quatre ans, il entre à l’université en 1933 et présente cinq ans plus tard une thèse sur Les mysidacés des eaux roumaines (étude taxonomique, biogéographique et biologique). En 1939, il obtient une bourse en France et travaille notamment au Muséum national d'histoire naturelle de Paris, au Musée océanographique de Monaco, à la station de biologie marine de Banyuls-sur-Mer et à celle de Roscoff. Il se fait apprécier les zoologistes français dont Louis Fage (1883-1964), Édouard Chatton (1883-1947), Charles Pérez (1873-1952) et Jules Richard (1863-1945) et il représente la Roumanie à la Commission internationale pour l'exploration scientifique de la Méditerranée (CIESM), dont Grigore Antipa était membre fondateur.
 C’est sur l’intervention de Grigore Antipa (1867-1944) qu’il est transféré en 1940 de l’université de Iași au Muséum national d'histoire naturelle de Bucarest où il travaillera jusqu’à la fin de sa vie et qu’il dirigera durant près de trente ans. Après une période de difficultés initiales avec la police politique communiste après 1945, qui en plein stalinisme fait du zèle pour prouver son efficacité en persécutant tous ceux qui avaient servi la monarchie précédente, il est réhabilité en 1954 et exerce diverses fonctions dans le domaine de la recherche océanographique et piscicole du pays. Étant membre fondateur de la CIESM, il est même le seul océanographe roumain autorisé à se rendre, avec un visa français, à Monaco (que la Roumanie communiste ne reconnaît pas) et à participer à des campagnes océanographiques internationales avec le CNEXO français en 1974 en Atlantique sur la Thalassa I et en 1977 avec l'équipe Cousteau.
 Băcescu fait paraître près de 480 publications sur les animaux les plus variés. Il s’intéresse à leur morphologie, la taxinomie, la zoogéographie mais aussi à la protection des espèces comme à leurs rapports avec les êtres humains. Sa principale spécialisation sont les mysidacés, les cumacés et les tanaïdacés dont il décrit plus de trois cents nouveaux taxons dont plusieurs familles. Il est également l’auteur de nombreux livres sur l’écologie de la mer Noire, la faune de Roumanie, la bioethnologie, etc. Băcescu participe à plusieurs voyages scientifiques sur les côtes du Pérou et du Chili (1965), de Mauritanie (1975), d’Arabie (1977) et de Tanzanie (1973-1974).
 En hommage à son œuvre, plus de 70 taxons lui ont été dédiés par divers scientifique. Louis Fage lui a notamment dédié l’espèce de Cumacea, Diastyloides bacescoi.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mihai_B%C4%83cescu</t>
+          <t>Mihai_Băcescu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bacescu, M. (1950). "Cumaceii Mediteraneeni modificati de mediul pontic." Analele Academiei Republicii Populare Romîne Tomul 3(Memoriul 2): 453-457.
 Bacescu, M. (1951). "Cumacea." Analele Academiei Republicii Populare Romîne Tomul 4(1): 5-91.
